--- a/output.xlsx
+++ b/output.xlsx
@@ -1,37 +1,197 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">[이천 M16 현장]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김도일
+주간-
+6DHFC801 10F PCW 설계 12/21(100%)
+6DHFC801 9F EXH 설계 12/22(50%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김범석
+주간-
+6DSAF202 8F SCR 2차 TRAY 간섭 관련 P&amp;S, 시공팀 현장 미팅 진행
+6ISEB811 PM2 Foreline NDU Door Open 간섭 관련 위치 이동 검토
+6ISEB809 9F CHILLER Layout 변경 Rev.설계 12/22(100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t>문진영
+주간-
+6IRF811, 6IRTF812 자체 QC 진행
+6IRNB815 10F EXH, VAC 배관사 대응
+6DSAF202 8F SCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 수정
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">홍지훈
+주간- 
+6DFPC209 10F 도면 확인
+6DHQC122 10F 도면 확인
+6DFPC209 8F GAS, PCW 설계 12/21(100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">노경은(외주)
+주간- 
+RDSP2801 8F GAS, PCW, BYP 도면 업데이트 12/22(100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이효정(외주)
+주간- 
+6DFPC202 8F GAS, PCW 도면 작업 12/22(100%) 
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임안나(외주)
+주간- 
+6DBNC523 9F GAS, PCW 도면 작업 12/21(100%)
+6DBNC523 9F 3차 GAS 도면 작업 12/22(100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t>조윤태(외주)
+주간- 
+6DSAF318 Asbuilt 자체 QC &amp; 정보추출 &amp; BOM &amp; Toolset 추출 작업
+야간-없음
+이상입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[청주 M15 현장] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방태훈 
+주간-
+5EV4G005 12/22 설계 (5%),
+5EV4G004 12/01 설계 (100%),
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김병훈 
+주간-연차
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">민병우
+주간-
+5EV4G018 3차 PCW 12/22 REV (100%),
+5ES3F702 5F VAC 12/22 REV (100%),
+5ES3F702 7F TOXIC 12/22 REV (100%)
+연장-
+5EV4G019 6F GAS,PCW 12/22 REV (100%),
+5ES3F601 7F EXH 12/22 REV (100%)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">권동현 
+주간-
+5EPLF802 설계 12/08 (78%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">한예지 
+주간-사무업무, QC확인,
+5EV4G004 5F EXH 12/22 도면작업 (100%),
+5EV4G004 5F DR 12/22 도면작업 (100%),
+5EV4G004 5F BYP 12/22 도면작업 (50%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김성호
+주간-
+5EV4G004 5F VAC 12/22 도면작업 (100%),
+5EV4G004 7F EXH 12/21 도면작업 (100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김호준
+주간-
+5EV4G004 6F PCW 12/22 도면작업 (100%),
+5EV4G004 3차 TRAY 12/22 도면작업  (100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">오윤경
+주간-
+5ELEF802 5F DR 12/22 도면작업 (100%),
+5ESPF804 7F PCW 12/22 도면업데이트 (100%),
+5EV4G003 6F GAS,PCW 12/22 도면업데이트 (100%)
+야간-없음
+</t>
+  </si>
+  <si>
+    <t>남지은
+주간-사무업무 및 바인더정리,
+5EV4G003 6F GAS,PCW 12/21 도면업데이트 (100%),
+5EV4G017 5F BYP 12/22 도면업데이트 (100%),
+5EV4G014 5F EXH 12/22 도면업데이트 (50%)
+야간-없음</t>
+  </si>
+  <si>
+    <t>, Static</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +206,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,302 +522,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[이천 M16 현장]
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>김도일
-주간-
-6DHFA203 3차 배관 설계 11/17(100%)
-조윤태 과장 설계 교육
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>김범석
-주간-
-PH2 제도사 작업 물량 조사
-24년 7월까지 월별 예상 기성금 산출
-RDTN2701 자체 QC 검증 간섭 구간 수정 작업
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>문진영
-주간-
-6DHQC242 10F EXH 배관사 대응 및 업데이트
-6DSAF201 8F BYP, EXH 업데이트 11/17(100%)
-6DTNC309 10F GAS, TOXIC, PCW, EXH, VAC 업데이트 11/17(100%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>홍지훈
-주간- 
-연차
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>노경은(외주)
-주간- 
-RDTN2701 10F PCW 도면 업데이트 11/17(50%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>이효정(외주)
-주간- 
-6ILAB503 10F PCW 도면 작업 연습 11/16(100%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>임안나(외주)
-주간- 
-6ILAB503 10F PCW 도면 작업 연습 11/16(100%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>조윤태(외주)
-주간- 
-6FPC209 장비 배치
-6FPC209 10F EXH 설계 11/17(30%)
-시공기준서 &amp; 특기시방서 스터디
-연장-없음
-이상입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>[청주 M15 현장] 
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>방태훈 
-주간-
-5EV4G012 7F TOXIC 11/16 설계 (100%),
-5EV4G013 7F TOXIC 11/16 설계 (100%),
-24년 예상 기성금액 정리
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>김병훈 
-주간-
-5ES3F701 7F TOXIC 11/16 REV (90%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>민병우
-주간-
-5ES3F601 7F TOXIC 11/17 설계 (45%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>권동현 
-주간-
-5MMME001 7F PCW 11/17 REV (100%),
-정산장비 캡처
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>한예지 
-주간-사무업무,
-H-VAC 11/16 도면작업 (100%),
-5EV4G018 7F EXH 도면작업 (100%)
-5ES3F608 7F GAS 11/17 도면 REV (100%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>김성호
-주간-
-5ES3F701 7F PCW 11/16 도면REV (100%),
-5EV4G018 5F DR 11/17 도면작업 (100%),
-5EV4G018 5F BYP 11/17 도면작업 (100%)
-연장-
-5MOCD401 7F GAS 11/17 도면작업 (100%)
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>김호준
-주간-
-BOM 추출 및  검토,
-5ES3F608 5F VAC 11/17 도면REV (100%),
-5EV4G013 3차 TRAY 11/17 도면REV (100%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>오윤경
-주간-
-5EV4G018 7F GAS 11/16 도면작업 (100%)
-연장-없음
-•</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>남지은
-주간-사무업무 및 바인더정리,
-5EV4G018 5F VAC 11/16 도면작업 (100%),
-5EV4G018 6F GAS,PCW 11/17 도면작업 (100%)
-연장-없음</t>
-        </is>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>